--- a/Unity/Assets/Config/Excel/Datas/Stage.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Stage.xlsx
@@ -1102,7 +1102,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="6"/>

--- a/Unity/Assets/Config/Excel/Datas/Stage.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Stage.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>##var</t>
   </si>
@@ -25,6 +25,12 @@
     <t>scene_name</t>
   </si>
   <si>
+    <t>base_camp_tower</t>
+  </si>
+  <si>
+    <t>base_camp_soldier</t>
+  </si>
+  <si>
     <t>count</t>
   </si>
   <si>
@@ -52,6 +58,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>int#ref=TbBuilding</t>
+  </si>
+  <si>
     <t>(array#sep=,),int</t>
   </si>
   <si>
@@ -68,6 +77,12 @@
   </si>
   <si>
     <t>地图名称</t>
+  </si>
+  <si>
+    <t>塔防大本营</t>
+  </si>
+  <si>
+    <t>兵防大本营</t>
   </si>
   <si>
     <t>波次数量</t>
@@ -1099,10 +1114,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="6"/>
@@ -1111,15 +1126,17 @@
     <col min="2" max="2" width="6.57142857142857" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.2142857142857" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.5178571428571" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9.21428571428571" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.2857142857143" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7857142857143" style="1" customWidth="1"/>
-    <col min="10" max="10" width="36.0714285714286" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.14285714285714" style="1"/>
+    <col min="5" max="5" width="18.7857142857143" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6428571428571" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9.21428571428571" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.2857142857143" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7857142857143" style="1" customWidth="1"/>
+    <col min="12" max="12" width="36.0714285714286" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1145,183 +1162,225 @@
       <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="K1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>13</v>
+      <c r="J2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:12">
       <c r="B4" s="1">
         <v>1001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1">
+        <v>30001</v>
+      </c>
+      <c r="F4" s="1">
+        <v>30005</v>
+      </c>
+      <c r="G4" s="1">
         <v>4</v>
       </c>
-      <c r="F4" s="1">
+      <c r="H4" s="1">
         <v>2000</v>
       </c>
-      <c r="G4" s="1">
+      <c r="I4" s="1">
         <v>90000</v>
       </c>
-      <c r="H4" s="1">
+      <c r="J4" s="1">
         <v>500</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>27</v>
+      <c r="K4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:12">
       <c r="B5" s="1">
         <v>1002</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1">
+        <v>30001</v>
+      </c>
+      <c r="F5" s="1">
+        <v>30005</v>
+      </c>
+      <c r="G5" s="1">
         <v>6</v>
       </c>
-      <c r="F5" s="1">
+      <c r="H5" s="1">
         <v>2000</v>
       </c>
-      <c r="G5" s="1">
+      <c r="I5" s="1">
         <v>90000</v>
       </c>
-      <c r="H5" s="1">
+      <c r="J5" s="1">
         <v>500</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>30</v>
+      <c r="K5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:12">
       <c r="B6" s="1">
         <v>1003</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1">
+        <v>30001</v>
+      </c>
+      <c r="F6" s="1">
+        <v>30005</v>
+      </c>
+      <c r="G6" s="1">
         <v>10</v>
       </c>
-      <c r="F6" s="1">
+      <c r="H6" s="1">
         <v>2000</v>
       </c>
-      <c r="G6" s="1">
+      <c r="I6" s="1">
         <v>90000</v>
       </c>
-      <c r="H6" s="1">
+      <c r="J6" s="1">
         <v>500</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>34</v>
+      <c r="K6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:12">
       <c r="B7" s="1">
         <v>1004</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="E7" s="1">
+        <v>30001</v>
       </c>
       <c r="F7" s="1">
+        <v>30005</v>
+      </c>
+      <c r="H7" s="1">
         <v>2000</v>
       </c>
-      <c r="G7" s="1">
+      <c r="I7" s="1">
         <v>90000</v>
       </c>
-      <c r="H7" s="1">
+      <c r="J7" s="1">
         <v>500</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>34</v>
+      <c r="K7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/Stage.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Stage.xlsx
@@ -130,13 +130,13 @@
     <t>Map2</t>
   </si>
   <si>
+    <t>无尽波 用最后一个配置自动补齐</t>
+  </si>
+  <si>
     <t>20,20</t>
   </si>
   <si>
     <t>4011,4012</t>
-  </si>
-  <si>
-    <t>无尽波 用最后一个配置自动补齐</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1117,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="6"/>
@@ -1269,7 +1269,7 @@
         <v>2000</v>
       </c>
       <c r="I4" s="1">
-        <v>90000</v>
+        <v>40000</v>
       </c>
       <c r="J4" s="1">
         <v>500</v>
@@ -1304,7 +1304,7 @@
         <v>2000</v>
       </c>
       <c r="I5" s="1">
-        <v>90000</v>
+        <v>40000</v>
       </c>
       <c r="J5" s="1">
         <v>500</v>
@@ -1339,16 +1339,16 @@
         <v>2000</v>
       </c>
       <c r="I6" s="1">
-        <v>90000</v>
+        <v>40000</v>
       </c>
       <c r="J6" s="1">
         <v>500</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="2:12">
@@ -1356,7 +1356,7 @@
         <v>1004</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>37</v>
@@ -1371,16 +1371,16 @@
         <v>2000</v>
       </c>
       <c r="I7" s="1">
-        <v>90000</v>
+        <v>40000</v>
       </c>
       <c r="J7" s="1">
         <v>500</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/Stage.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Stage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15900"/>
+    <workbookView windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
   <si>
     <t>##var</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Id</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>fight_mode</t>
+  </si>
+  <si>
     <t>scene_name</t>
   </si>
   <si>
@@ -58,6 +64,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>FightMode</t>
+  </si>
+  <si>
     <t>int#ref=TbBuilding</t>
   </si>
   <si>
@@ -76,6 +85,12 @@
     <t>备注</t>
   </si>
   <si>
+    <t>关卡名称</t>
+  </si>
+  <si>
+    <t>战斗模式</t>
+  </si>
+  <si>
     <t>地图名称</t>
   </si>
   <si>
@@ -106,6 +121,9 @@
     <t>共4波</t>
   </si>
   <si>
+    <t>PVE</t>
+  </si>
+  <si>
     <t>Map1</t>
   </si>
   <si>
@@ -127,16 +145,25 @@
     <t>共10波 用最后一个配置自动补齐</t>
   </si>
   <si>
+    <t>共10波</t>
+  </si>
+  <si>
     <t>Map2</t>
   </si>
   <si>
     <t>无尽波 用最后一个配置自动补齐</t>
   </si>
   <si>
+    <t>无尽波</t>
+  </si>
+  <si>
     <t>20,20</t>
   </si>
   <si>
     <t>4011,4012</t>
+  </si>
+  <si>
+    <t>PVP</t>
   </si>
 </sst>
 </file>
@@ -1114,29 +1141,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.57142857142857" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.2142857142857" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5178571428571" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7857142857143" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6428571428571" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9.21428571428571" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.2857142857143" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.7857142857143" style="1" customWidth="1"/>
-    <col min="12" max="12" width="36.0714285714286" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.14285714285714" style="1"/>
+    <col min="4" max="4" width="13.0892857142857" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.4375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5178571428571" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7857142857143" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6428571428571" style="1" customWidth="1"/>
+    <col min="9" max="10" width="9.21428571428571" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.2857142857143" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.7857142857143" style="1" customWidth="1"/>
+    <col min="14" max="14" width="36.0714285714286" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1168,219 +1197,299 @@
       <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="M1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="K2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:14">
       <c r="B4" s="1">
         <v>1001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="1">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="1">
         <v>30001</v>
       </c>
-      <c r="F4" s="1">
+      <c r="H4" s="1">
         <v>30005</v>
       </c>
-      <c r="G4" s="1">
+      <c r="I4" s="1">
         <v>4</v>
       </c>
-      <c r="H4" s="1">
+      <c r="J4" s="1">
         <v>2000</v>
       </c>
-      <c r="I4" s="1">
+      <c r="K4" s="1">
         <v>40000</v>
       </c>
-      <c r="J4" s="1">
+      <c r="L4" s="1">
         <v>500</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>32</v>
+      <c r="M4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:14">
       <c r="B5" s="1">
         <v>1002</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="1">
+        <v>39</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="1">
         <v>30001</v>
       </c>
-      <c r="F5" s="1">
+      <c r="H5" s="1">
         <v>30005</v>
       </c>
-      <c r="G5" s="1">
+      <c r="I5" s="1">
         <v>6</v>
       </c>
-      <c r="H5" s="1">
+      <c r="J5" s="1">
         <v>2000</v>
       </c>
-      <c r="I5" s="1">
+      <c r="K5" s="1">
         <v>40000</v>
       </c>
-      <c r="J5" s="1">
+      <c r="L5" s="1">
         <v>500</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>35</v>
+      <c r="M5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:14">
       <c r="B6" s="1">
         <v>1003</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="1">
+        <v>43</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="1">
         <v>30001</v>
       </c>
-      <c r="F6" s="1">
+      <c r="H6" s="1">
         <v>30005</v>
       </c>
-      <c r="G6" s="1">
+      <c r="I6" s="1">
         <v>10</v>
       </c>
-      <c r="H6" s="1">
+      <c r="J6" s="1">
         <v>2000</v>
       </c>
-      <c r="I6" s="1">
+      <c r="K6" s="1">
         <v>40000</v>
       </c>
-      <c r="J6" s="1">
+      <c r="L6" s="1">
         <v>500</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>35</v>
+      <c r="M6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:14">
       <c r="B7" s="1">
         <v>1004</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="1">
+        <v>46</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="1">
         <v>30001</v>
       </c>
-      <c r="F7" s="1">
+      <c r="H7" s="1">
         <v>30005</v>
       </c>
-      <c r="H7" s="1">
+      <c r="J7" s="1">
         <v>2000</v>
       </c>
-      <c r="I7" s="1">
+      <c r="K7" s="1">
         <v>40000</v>
       </c>
-      <c r="J7" s="1">
+      <c r="L7" s="1">
         <v>500</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>40</v>
+      <c r="M7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="1">
+        <v>1005</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="1">
+        <v>30001</v>
+      </c>
+      <c r="H8" s="1">
+        <v>30005</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2000</v>
+      </c>
+      <c r="K8" s="1">
+        <v>40000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>500</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/Stage.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Stage.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
   <si>
     <t>##var</t>
   </si>
@@ -55,6 +55,9 @@
     <t>random_sets</t>
   </si>
   <si>
+    <t>random_cards</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -118,6 +121,9 @@
     <t>每波刷怪掉落集</t>
   </si>
   <si>
+    <t>每波抽卡集</t>
+  </si>
+  <si>
     <t>共4波</t>
   </si>
   <si>
@@ -133,6 +139,9 @@
     <t>4001,4002,4003,4004</t>
   </si>
   <si>
+    <t>80001,80002,80003</t>
+  </si>
+  <si>
     <t>共6波</t>
   </si>
   <si>
@@ -161,6 +170,9 @@
   </si>
   <si>
     <t>4011,4012</t>
+  </si>
+  <si>
+    <t>80001,80002</t>
   </si>
   <si>
     <t>PVP</t>
@@ -1141,10 +1153,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="7"/>
@@ -1161,11 +1173,11 @@
     <col min="11" max="11" width="14.2857142857143" style="1" customWidth="1"/>
     <col min="12" max="12" width="16.5" style="1" customWidth="1"/>
     <col min="13" max="13" width="19.7857142857143" style="1" customWidth="1"/>
-    <col min="14" max="14" width="36.0714285714286" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9.14285714285714" style="1"/>
+    <col min="14" max="15" width="36.0714285714286" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1206,108 +1218,117 @@
       <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="O1" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="K2" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:15">
       <c r="B4" s="1">
         <v>1001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G4" s="1">
         <v>30001</v>
@@ -1328,27 +1349,30 @@
         <v>500</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:15">
       <c r="B5" s="1">
         <v>1002</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G5" s="1">
         <v>30001</v>
@@ -1369,27 +1393,30 @@
         <v>500</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:15">
       <c r="B6" s="1">
         <v>1003</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G6" s="1">
         <v>30001</v>
@@ -1410,27 +1437,30 @@
         <v>500</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:15">
       <c r="B7" s="1">
         <v>1004</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G7" s="1">
         <v>30001</v>
@@ -1448,27 +1478,30 @@
         <v>500</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:15">
       <c r="B8" s="1">
         <v>1005</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G8" s="1">
         <v>30001</v>
@@ -1486,10 +1519,13 @@
         <v>500</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/Stage.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Stage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15820"/>
+    <workbookView windowHeight="18200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
   <si>
     <t>##var</t>
   </si>
@@ -31,6 +31,9 @@
     <t>scene_name</t>
   </si>
   <si>
+    <t>init_data</t>
+  </si>
+  <si>
     <t>base_camp_tower</t>
   </si>
   <si>
@@ -97,6 +100,9 @@
     <t>地图名称</t>
   </si>
   <si>
+    <t>初始单位配置数据</t>
+  </si>
+  <si>
     <t>塔防大本营</t>
   </si>
   <si>
@@ -118,7 +124,7 @@
     <t>每波刷怪数量</t>
   </si>
   <si>
-    <t>每波刷怪掉落集</t>
+    <t>每波刷怪集</t>
   </si>
   <si>
     <t>每波抽卡集</t>
@@ -176,6 +182,21 @@
   </si>
   <si>
     <t>PVP</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>稻草人</t>
+  </si>
+  <si>
+    <t>Stage9001</t>
+  </si>
+  <si>
+    <t>集群寻路</t>
+  </si>
+  <si>
+    <t>Stage9002</t>
   </si>
 </sst>
 </file>
@@ -1153,13 +1174,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="G9" sqref="G9:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.57142857142857" style="1" customWidth="1"/>
@@ -1167,17 +1188,18 @@
     <col min="4" max="4" width="13.0892857142857" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.4375" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.5178571428571" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7857142857143" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6428571428571" style="1" customWidth="1"/>
-    <col min="9" max="10" width="9.21428571428571" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.2857142857143" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.7857142857143" style="1" customWidth="1"/>
-    <col min="14" max="15" width="36.0714285714286" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9.14285714285714" style="1"/>
+    <col min="7" max="7" width="17.0714285714286" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7857142857143" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6428571428571" style="1" customWidth="1"/>
+    <col min="10" max="11" width="9.21428571428571" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.2857142857143" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.7857142857143" style="1" customWidth="1"/>
+    <col min="15" max="16" width="36.0714285714286" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1215,317 +1237,366 @@
       <c r="M1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="P1" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="L2" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="N3" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="O3" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:16">
       <c r="B4" s="1">
         <v>1001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="1">
+        <v>40</v>
+      </c>
+      <c r="H4" s="1">
         <v>30001</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>30005</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>4</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>2000</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>40000</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>500</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>40</v>
+      <c r="N4" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:16">
       <c r="B5" s="1">
         <v>1002</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="1">
+        <v>40</v>
+      </c>
+      <c r="H5" s="1">
         <v>30001</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>30005</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>6</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>2000</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>40000</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>500</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:16">
       <c r="B6" s="1">
         <v>1003</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="1">
+        <v>30001</v>
+      </c>
+      <c r="I6" s="1">
+        <v>30005</v>
+      </c>
+      <c r="J6" s="1">
+        <v>10</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="M6" s="1">
+        <v>500</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="O6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="1">
-        <v>30001</v>
-      </c>
-      <c r="H6" s="1">
-        <v>30005</v>
-      </c>
-      <c r="I6" s="1">
-        <v>10</v>
-      </c>
-      <c r="J6" s="1">
-        <v>2000</v>
-      </c>
-      <c r="K6" s="1">
-        <v>40000</v>
-      </c>
-      <c r="L6" s="1">
-        <v>500</v>
-      </c>
-      <c r="M6" s="1" t="s">
+      <c r="P6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:16">
       <c r="B7" s="1">
         <v>1004</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>30001</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>30005</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>2000</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>40000</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>500</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>51</v>
+      <c r="N7" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:16">
       <c r="B8" s="1">
         <v>1005</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="H8" s="1">
+        <v>30001</v>
+      </c>
+      <c r="I8" s="1">
+        <v>30005</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>40000</v>
+      </c>
+      <c r="M8" s="1">
+        <v>500</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="1">
-        <v>30001</v>
-      </c>
-      <c r="H8" s="1">
-        <v>30005</v>
-      </c>
-      <c r="J8" s="1">
-        <v>2000</v>
-      </c>
-      <c r="K8" s="1">
-        <v>40000</v>
-      </c>
-      <c r="L8" s="1">
-        <v>500</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>52</v>
+      <c r="P8" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="1">
+        <v>9001</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="1">
+        <v>9002</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/Stage.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Stage.xlsx
@@ -73,7 +73,7 @@
     <t>FightMode</t>
   </si>
   <si>
-    <t>int#ref=TbBuilding</t>
+    <t>int#ref=TbBuilding?</t>
   </si>
   <si>
     <t>(array#sep=,),int</t>
@@ -1177,7 +1177,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:G10"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>

--- a/Unity/Assets/Config/Excel/Datas/Stage.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Stage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18200"/>
+    <workbookView windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -190,13 +190,13 @@
     <t>稻草人</t>
   </si>
   <si>
-    <t>Stage9001</t>
+    <t>9;9;20000;40001;2</t>
   </si>
   <si>
     <t>集群寻路</t>
   </si>
   <si>
-    <t>Stage9002</t>
+    <t>9;9;20000;40002;1</t>
   </si>
 </sst>
 </file>
@@ -1177,7 +1177,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1188,7 +1188,7 @@
     <col min="4" max="4" width="13.0892857142857" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.4375" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.5178571428571" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.0714285714286" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5714285714286" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.7857142857143" style="1" customWidth="1"/>
     <col min="9" max="9" width="19.6428571428571" style="1" customWidth="1"/>
     <col min="10" max="11" width="9.21428571428571" style="1" customWidth="1"/>
@@ -1196,7 +1196,7 @@
     <col min="13" max="13" width="16.5" style="1" customWidth="1"/>
     <col min="14" max="14" width="19.7857142857143" style="1" customWidth="1"/>
     <col min="15" max="16" width="36.0714285714286" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9.14285714285714" style="1"/>
+    <col min="17" max="16383" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">

--- a/Unity/Assets/Config/Excel/Datas/Stage.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Stage.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
   <si>
     <t>##var</t>
   </si>
@@ -34,12 +34,6 @@
     <t>init_data</t>
   </si>
   <si>
-    <t>base_camp_tower</t>
-  </si>
-  <si>
-    <t>base_camp_soldier</t>
-  </si>
-  <si>
     <t>count</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>FightMode</t>
   </si>
   <si>
-    <t>int#ref=TbBuilding?</t>
-  </si>
-  <si>
     <t>(array#sep=,),int</t>
   </si>
   <si>
@@ -101,12 +92,6 @@
   </si>
   <si>
     <t>初始单位配置数据</t>
-  </si>
-  <si>
-    <t>塔防大本营</t>
-  </si>
-  <si>
-    <t>兵防大本营</t>
   </si>
   <si>
     <t>波次数量</t>
@@ -1174,10 +1159,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1189,17 +1174,15 @@
     <col min="5" max="5" width="14.4375" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.5178571428571" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.5714285714286" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7857142857143" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.6428571428571" style="1" customWidth="1"/>
-    <col min="10" max="11" width="9.21428571428571" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.2857142857143" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.7857142857143" style="1" customWidth="1"/>
-    <col min="15" max="16" width="36.0714285714286" style="2" customWidth="1"/>
-    <col min="17" max="16383" width="9.14285714285714" style="1"/>
+    <col min="8" max="9" width="9.21428571428571" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.2857142857143" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7857142857143" style="1" customWidth="1"/>
+    <col min="13" max="14" width="36.0714285714286" style="2" customWidth="1"/>
+    <col min="15" max="16381" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:14">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1234,329 +1217,281 @@
       <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="M2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="N2" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>21</v>
+      <c r="D3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16">
+    <row r="4" spans="2:14">
       <c r="B4" s="1">
         <v>1001</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J4" s="1">
+        <v>40000</v>
+      </c>
+      <c r="K4" s="1">
+        <v>500</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="1">
-        <v>30001</v>
-      </c>
-      <c r="I4" s="1">
-        <v>30005</v>
-      </c>
-      <c r="J4" s="1">
-        <v>4</v>
-      </c>
-      <c r="K4" s="1">
-        <v>2000</v>
-      </c>
-      <c r="L4" s="1">
-        <v>40000</v>
-      </c>
-      <c r="M4" s="1">
-        <v>500</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="5" spans="2:16">
+    <row r="5" spans="2:14">
       <c r="B5" s="1">
         <v>1002</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="1">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J5" s="1">
+        <v>40000</v>
+      </c>
+      <c r="K5" s="1">
+        <v>500</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="1">
-        <v>30001</v>
-      </c>
-      <c r="I5" s="1">
-        <v>30005</v>
-      </c>
-      <c r="J5" s="1">
-        <v>6</v>
-      </c>
-      <c r="K5" s="1">
-        <v>2000</v>
-      </c>
-      <c r="L5" s="1">
-        <v>40000</v>
-      </c>
-      <c r="M5" s="1">
-        <v>500</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>43</v>
+      <c r="M5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="6" spans="2:16">
+    <row r="6" spans="2:14">
       <c r="B6" s="1">
         <v>1003</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H6" s="1">
-        <v>30001</v>
+        <v>10</v>
       </c>
       <c r="I6" s="1">
-        <v>30005</v>
+        <v>2000</v>
       </c>
       <c r="J6" s="1">
-        <v>10</v>
+        <v>40000</v>
       </c>
       <c r="K6" s="1">
-        <v>2000</v>
-      </c>
-      <c r="L6" s="1">
-        <v>40000</v>
-      </c>
-      <c r="M6" s="1">
         <v>500</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>43</v>
+      <c r="L6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="7" spans="2:16">
+    <row r="7" spans="2:14">
       <c r="B7" s="1">
         <v>1004</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J7" s="1">
+        <v>40000</v>
+      </c>
+      <c r="K7" s="1">
+        <v>500</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="1">
-        <v>30001</v>
-      </c>
-      <c r="I7" s="1">
-        <v>30005</v>
-      </c>
-      <c r="K7" s="1">
-        <v>2000</v>
-      </c>
-      <c r="L7" s="1">
-        <v>40000</v>
-      </c>
-      <c r="M7" s="1">
-        <v>500</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="2:14">
       <c r="B8" s="1">
         <v>1005</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J8" s="1">
+        <v>40000</v>
+      </c>
+      <c r="K8" s="1">
+        <v>500</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="H8" s="1">
-        <v>30001</v>
-      </c>
-      <c r="I8" s="1">
-        <v>30005</v>
-      </c>
-      <c r="K8" s="1">
-        <v>2000</v>
-      </c>
-      <c r="L8" s="1">
-        <v>40000</v>
-      </c>
-      <c r="M8" s="1">
-        <v>500</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -1564,19 +1499,19 @@
         <v>9001</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="2:7">
@@ -1584,19 +1519,19 @@
         <v>9002</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/Stage.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Stage.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="80">
   <si>
     <t>##var</t>
   </si>
@@ -34,6 +34,12 @@
     <t>init_data</t>
   </si>
   <si>
+    <t>init_create_cards</t>
+  </si>
+  <si>
+    <t>init_cards</t>
+  </si>
+  <si>
     <t>count</t>
   </si>
   <si>
@@ -67,6 +73,12 @@
     <t>FightMode</t>
   </si>
   <si>
+    <t>array,ItemPosition</t>
+  </si>
+  <si>
+    <t>array,ItemCount</t>
+  </si>
+  <si>
     <t>(array#sep=,),int</t>
   </si>
   <si>
@@ -94,6 +106,12 @@
     <t>初始单位配置数据</t>
   </si>
   <si>
+    <t>初始建造卡牌</t>
+  </si>
+  <si>
+    <t>初始持有卡牌</t>
+  </si>
+  <si>
     <t>波次数量</t>
   </si>
   <si>
@@ -124,6 +142,21 @@
     <t>Map1</t>
   </si>
   <si>
+    <t>-5,0,Block,2001,1</t>
+  </si>
+  <si>
+    <t>5,0,Block,2001,1</t>
+  </si>
+  <si>
+    <t>Block,2001,1</t>
+  </si>
+  <si>
+    <t>Block,2002,1</t>
+  </si>
+  <si>
+    <t>Block,2003,1</t>
+  </si>
+  <si>
     <t>20,20,20,20</t>
   </si>
   <si>
@@ -136,6 +169,21 @@
     <t>共6波</t>
   </si>
   <si>
+    <t>Item,5001,1</t>
+  </si>
+  <si>
+    <t>Item,5002,1</t>
+  </si>
+  <si>
+    <t>Item,5003,1</t>
+  </si>
+  <si>
+    <t>Item,5004,1</t>
+  </si>
+  <si>
+    <t>Item,5005,1</t>
+  </si>
+  <si>
     <t>20,20,20,20,20,20</t>
   </si>
   <si>
@@ -151,10 +199,34 @@
     <t>Map2</t>
   </si>
   <si>
+    <t>Building,30011,1</t>
+  </si>
+  <si>
+    <t>Building,30021,1</t>
+  </si>
+  <si>
+    <t>Building,30031,1</t>
+  </si>
+  <si>
+    <t>Building,30041,1</t>
+  </si>
+  <si>
+    <t>Building,30051,1</t>
+  </si>
+  <si>
     <t>无尽波 用最后一个配置自动补齐</t>
   </si>
   <si>
     <t>无尽波</t>
+  </si>
+  <si>
+    <t>Building,30061,1</t>
+  </si>
+  <si>
+    <t>Building,30071,1</t>
+  </si>
+  <si>
+    <t>Building,30081,1</t>
   </si>
   <si>
     <t>20,20</t>
@@ -566,10 +638,28 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -696,7 +786,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -708,34 +798,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -820,11 +910,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -837,8 +933,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1159,10 +1267,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1174,367 +1282,532 @@
     <col min="5" max="5" width="14.4375" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.5178571428571" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.5714285714286" style="1" customWidth="1"/>
-    <col min="8" max="9" width="9.21428571428571" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.2857142857143" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7857142857143" style="1" customWidth="1"/>
-    <col min="13" max="14" width="36.0714285714286" style="2" customWidth="1"/>
-    <col min="15" max="16381" width="9.14285714285714" style="1"/>
+    <col min="8" max="8" width="19.4285714285714" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.2857142857143" style="1" customWidth="1"/>
+    <col min="10" max="11" width="18.3571428571429" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.3571428571429" style="3" customWidth="1"/>
+    <col min="13" max="13" width="18.3571428571429" style="2" customWidth="1"/>
+    <col min="14" max="16" width="18.3571428571429" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.3571428571429" style="3" customWidth="1"/>
+    <col min="18" max="19" width="9.21428571428571" style="1" customWidth="1"/>
+    <col min="20" max="20" width="14.2857142857143" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16.5" style="1" customWidth="1"/>
+    <col min="22" max="22" width="19.7857142857143" style="1" customWidth="1"/>
+    <col min="23" max="24" width="36.0714285714286" style="4" customWidth="1"/>
+    <col min="25" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:24">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="S1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="T1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="U1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="V1" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="W1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+    <row r="2" spans="1:24">
+      <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>18</v>
+      <c r="F2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="5" t="s">
+    <row r="3" spans="1:24">
+      <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="G3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="H3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="S3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:24">
       <c r="B4" s="1">
         <v>1001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="1">
+        <v>41</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" s="1">
         <v>4</v>
       </c>
-      <c r="I4" s="1">
+      <c r="S4" s="1">
         <v>2000</v>
       </c>
-      <c r="J4" s="1">
+      <c r="T4" s="1">
         <v>40000</v>
       </c>
-      <c r="K4" s="1">
+      <c r="U4" s="1">
         <v>500</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>38</v>
+      <c r="V4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:24">
       <c r="B5" s="1">
         <v>1002</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="1">
+        <v>41</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R5" s="1">
         <v>6</v>
       </c>
-      <c r="I5" s="1">
+      <c r="S5" s="1">
         <v>2000</v>
       </c>
-      <c r="J5" s="1">
+      <c r="T5" s="1">
         <v>40000</v>
       </c>
-      <c r="K5" s="1">
+      <c r="U5" s="1">
         <v>500</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>38</v>
+      <c r="V5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:24">
       <c r="B6" s="1">
         <v>1003</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="I6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="M6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R6" s="1">
         <v>10</v>
       </c>
-      <c r="I6" s="1">
+      <c r="S6" s="1">
         <v>2000</v>
       </c>
-      <c r="J6" s="1">
+      <c r="T6" s="1">
         <v>40000</v>
       </c>
-      <c r="K6" s="1">
+      <c r="U6" s="1">
         <v>500</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>38</v>
+      <c r="V6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:24">
       <c r="B7" s="1">
         <v>1004</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="1">
+        <v>60</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S7" s="1">
         <v>2000</v>
       </c>
-      <c r="J7" s="1">
+      <c r="T7" s="1">
         <v>40000</v>
       </c>
-      <c r="K7" s="1">
+      <c r="U7" s="1">
         <v>500</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>49</v>
+      <c r="V7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:24">
       <c r="B8" s="1">
         <v>1005</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="1">
+        <v>60</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S8" s="1">
         <v>2000</v>
       </c>
-      <c r="J8" s="1">
+      <c r="T8" s="1">
         <v>40000</v>
       </c>
-      <c r="K8" s="1">
+      <c r="U8" s="1">
         <v>500</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>49</v>
+      <c r="V8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:15">
       <c r="B9" s="1">
         <v>9001</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>53</v>
+        <v>77</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="10"/>
+      <c r="M9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:15">
       <c r="B10" s="1">
         <v>9002</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>55</v>
+        <v>79</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="M10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Unity/Assets/Config/Excel/Datas/Stage.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Stage.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="80">
   <si>
     <t>##var</t>
   </si>
@@ -1269,8 +1269,8 @@
   <sheetPr/>
   <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1738,7 +1738,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:24">
       <c r="B9" s="1">
         <v>9001</v>
       </c>
@@ -1757,7 +1757,6 @@
       <c r="G9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H9" s="2"/>
       <c r="I9" s="10"/>
       <c r="M9" s="2" t="s">
         <v>61</v>
@@ -1768,8 +1767,11 @@
       <c r="O9" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="X9" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:24">
       <c r="B10" s="1">
         <v>9002</v>
       </c>
@@ -1797,6 +1799,9 @@
       </c>
       <c r="O10" s="1" t="s">
         <v>63</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
